--- a/res/sub_table.xlsx
+++ b/res/sub_table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="174">
   <si>
     <t xml:space="preserve">Instruction</t>
   </si>
@@ -564,7 +564,7 @@
   <si>
     <t xml:space="preserve">l.xor rD,rA,r0
 l.xori r0,r0,I
-l.sra rD,rA,r0
+l.sra rD,rD,r0
 l.xor r0,r0,r0</t>
   </si>
   <si>
@@ -588,7 +588,7 @@
   <si>
     <t xml:space="preserve">l.xor rD,rA,r0
 l.xori r0,r0,I
-l.srl rD,rA,r0
+l.srl rD,rD,r0
 l.xor r0,r0,r0</t>
   </si>
   <si>
@@ -612,6 +612,10 @@
   <si>
     <t xml:space="preserve">l.sw I(rA),rB
 l.andi r0,r0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l.sw I(rA),rB
+l.movhi r0,0</t>
   </si>
   <si>
     <t xml:space="preserve">l.swa I(rA),rB</t>
@@ -685,7 +689,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -707,19 +711,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF7F00"/>
-        <bgColor rgb="FFF58220"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF993300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF58220"/>
-        <bgColor rgb="FFFF7F00"/>
       </patternFill>
     </fill>
   </fills>
@@ -757,7 +755,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -786,14 +784,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -803,14 +793,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -873,7 +855,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFF58220"/>
+      <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF7F00"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -897,8 +879,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ98"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A89" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B98" activeCellId="0" sqref="B98"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C95" activeCellId="0" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -942,7 +924,7 @@
       <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
@@ -964,28 +946,28 @@
       <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -997,43 +979,43 @@
       <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="3"/>
@@ -1042,7 +1024,7 @@
       <c r="E11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="3"/>
@@ -1051,7 +1033,7 @@
       <c r="E12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="3"/>
@@ -1060,7 +1042,7 @@
       <c r="E13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="3"/>
@@ -1069,7 +1051,7 @@
       <c r="E14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="3"/>
@@ -1078,7 +1060,7 @@
       <c r="E15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="3"/>
@@ -1087,7 +1069,7 @@
       <c r="E16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="3"/>
@@ -1096,7 +1078,7 @@
       <c r="E17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="3"/>
@@ -1105,7 +1087,7 @@
       <c r="E18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="3"/>
@@ -1114,7 +1096,7 @@
       <c r="E19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="3"/>
@@ -1123,7 +1105,7 @@
       <c r="E20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B21" s="3"/>
@@ -1135,7 +1117,7 @@
       <c r="A22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -1148,20 +1130,20 @@
       <c r="A23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -1177,7 +1159,7 @@
       <c r="B25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="3"/>
@@ -1233,24 +1215,24 @@
       <c r="E29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="7"/>
+      <c r="B30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1258,13 +1240,13 @@
       <c r="A34" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="5" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1272,16 +1254,16 @@
       <c r="A35" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="9" t="s">
         <v>68</v>
       </c>
       <c r="B36" s="3"/>
@@ -1292,10 +1274,10 @@
       <c r="A37" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D37" s="4"/>
@@ -1304,13 +1286,13 @@
       <c r="A38" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="5" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1329,7 +1311,7 @@
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C40" s="6" t="s">
@@ -1338,7 +1320,7 @@
       <c r="D40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="8" t="s">
         <v>79</v>
       </c>
       <c r="B41" s="3"/>
@@ -1347,7 +1329,7 @@
       <c r="E41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="8" t="s">
         <v>80</v>
       </c>
       <c r="B42" s="3"/>
@@ -1356,7 +1338,7 @@
       <c r="E42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="8" t="s">
         <v>81</v>
       </c>
       <c r="B43" s="3"/>
@@ -1365,7 +1347,7 @@
       <c r="E43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="9" t="s">
         <v>82</v>
       </c>
       <c r="B44" s="3"/>
@@ -1376,7 +1358,7 @@
       <c r="A45" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="6" t="s">
         <v>84</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -1387,22 +1369,22 @@
       <c r="A46" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="8" t="s">
         <v>90</v>
       </c>
       <c r="B47" s="3"/>
@@ -1411,7 +1393,7 @@
       <c r="E47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="9" t="s">
         <v>91</v>
       </c>
       <c r="B48" s="3"/>
@@ -1420,7 +1402,7 @@
       <c r="E48" s="3"/>
     </row>
     <row r="49" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="9" t="s">
         <v>92</v>
       </c>
       <c r="B49" s="3"/>
@@ -1442,7 +1424,7 @@
       <c r="D50" s="3"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B51" s="3"/>
@@ -1451,7 +1433,7 @@
       <c r="E51" s="3"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="9" t="s">
         <v>97</v>
       </c>
       <c r="B52" s="3"/>
@@ -1460,24 +1442,24 @@
       <c r="E52" s="3"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="9" t="s">
         <v>98</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="14"/>
+      <c r="D53" s="10"/>
       <c r="E53" s="3"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
       <c r="D54" s="3"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="8" t="s">
         <v>100</v>
       </c>
       <c r="B55" s="3"/>
@@ -1488,7 +1470,7 @@
       <c r="A56" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D56" s="7"/>
+      <c r="D56" s="5"/>
     </row>
     <row r="57" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
@@ -1500,32 +1482,32 @@
       <c r="C57" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
     </row>
     <row r="58" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="5" t="s">
         <v>107</v>
       </c>
       <c r="D58" s="3"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B59" s="7"/>
+      <c r="B59" s="5"/>
       <c r="C59" s="3"/>
       <c r="E59" s="3"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="8" t="s">
         <v>109</v>
       </c>
       <c r="D60" s="3"/>
@@ -1546,7 +1528,7 @@
       <c r="A62" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C62" s="6" t="s">
@@ -1560,7 +1542,7 @@
       <c r="D63" s="3"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="9" t="s">
         <v>117</v>
       </c>
       <c r="B64" s="3"/>
@@ -1568,15 +1550,15 @@
       <c r="E64" s="3"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
       <c r="D65" s="3"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="8" t="s">
         <v>119</v>
       </c>
       <c r="B66" s="3"/>
@@ -1584,14 +1566,14 @@
       <c r="E66" s="3"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="8" t="s">
         <v>120</v>
       </c>
       <c r="B67" s="3"/>
       <c r="D67" s="3"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="8" t="s">
         <v>121</v>
       </c>
       <c r="B68" s="3"/>
@@ -1599,15 +1581,15 @@
       <c r="E68" s="3"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
       <c r="D69" s="3"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="8" t="s">
         <v>123</v>
       </c>
       <c r="B70" s="3"/>
@@ -1615,13 +1597,13 @@
       <c r="E70" s="3"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="8" t="s">
         <v>124</v>
       </c>
       <c r="D71" s="3"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="8" t="s">
         <v>125</v>
       </c>
       <c r="B72" s="3"/>
@@ -1629,13 +1611,13 @@
       <c r="E72" s="3"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="8" t="s">
         <v>126</v>
       </c>
       <c r="D73" s="3"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="8" t="s">
         <v>127</v>
       </c>
       <c r="B74" s="3"/>
@@ -1644,7 +1626,7 @@
       <c r="E74" s="3"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="8" t="s">
         <v>128</v>
       </c>
       <c r="C75" s="3"/>
@@ -1652,7 +1634,7 @@
       <c r="E75" s="3"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="8" t="s">
         <v>129</v>
       </c>
       <c r="B76" s="3"/>
@@ -1660,14 +1642,14 @@
       <c r="E76" s="3"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="8" t="s">
         <v>130</v>
       </c>
       <c r="B77" s="3"/>
       <c r="D77" s="3"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="8" t="s">
         <v>131</v>
       </c>
       <c r="B78" s="3"/>
@@ -1675,13 +1657,13 @@
       <c r="E78" s="3"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="8" t="s">
         <v>132</v>
       </c>
       <c r="D79" s="3"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B80" s="3"/>
@@ -1689,14 +1671,14 @@
       <c r="E80" s="3"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B81" s="3"/>
       <c r="D81" s="3"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="8" t="s">
         <v>135</v>
       </c>
       <c r="B82" s="3"/>
@@ -1704,15 +1686,15 @@
       <c r="E82" s="3"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
       <c r="D83" s="3"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="8" t="s">
         <v>137</v>
       </c>
       <c r="B84" s="3"/>
@@ -1723,10 +1705,10 @@
       <c r="A85" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="5" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1740,20 +1722,20 @@
       <c r="C86" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D86" s="7"/>
+      <c r="D86" s="5"/>
     </row>
     <row r="87" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
     </row>
     <row r="88" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
@@ -1765,20 +1747,20 @@
       <c r="C88" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D88" s="7"/>
+      <c r="D88" s="5"/>
     </row>
     <row r="89" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="5" t="s">
         <v>151</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
     </row>
     <row r="90" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
@@ -1790,21 +1772,21 @@
       <c r="C90" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D90" s="7"/>
+      <c r="D90" s="5"/>
     </row>
     <row r="91" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="5" t="s">
         <v>157</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>158</v>
       </c>
       <c r="D91" s="3"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
     </row>
     <row r="92" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
@@ -1818,7 +1800,7 @@
       </c>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>162</v>
       </c>
@@ -1826,49 +1808,49 @@
         <v>163</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D93" s="3"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="11" t="s">
-        <v>164</v>
+      <c r="A94" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="E94" s="3"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="10" t="s">
-        <v>165</v>
+      <c r="A95" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="10" t="s">
-        <v>166</v>
+      <c r="A96" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D97" s="7"/>
+        <v>170</v>
+      </c>
+      <c r="D97" s="5"/>
     </row>
     <row r="98" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B98" s="7" t="s">
         <v>171</v>
       </c>
+      <c r="B98" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="C98" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/res/sub_table.xlsx
+++ b/res/sub_table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="196">
   <si>
     <t xml:space="preserve">Instruction</t>
   </si>
@@ -382,6 +382,14 @@
   </si>
   <si>
     <t xml:space="preserve">l.nop K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l.nop K
+l.andi r0,r0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l.nop K
+l.movhi r0,0</t>
   </si>
   <si>
     <t xml:space="preserve">l.or rD,rA,rB</t>
@@ -456,61 +464,143 @@
     <t xml:space="preserve">l.sfeq rA,rB</t>
   </si>
   <si>
+    <t xml:space="preserve">l.sfeq rA,rB
+l.ff1 r0,r0</t>
+  </si>
+  <si>
     <t xml:space="preserve">l.sfeqi rA,I</t>
   </si>
   <si>
+    <t xml:space="preserve">l.xori r0,r0,I
+l.sfeq rA,r0
+l.xor r0,r0,r0</t>
+  </si>
+  <si>
     <t xml:space="preserve">l.sfges rA,rB</t>
   </si>
   <si>
+    <t xml:space="preserve">l.sfles rB,rA</t>
+  </si>
+  <si>
     <t xml:space="preserve">l.sfgesi rA,I</t>
   </si>
   <si>
+    <t xml:space="preserve">l.xori r0,r0,I
+l.sfges rA,r0
+l.xor r0,r0,r0</t>
+  </si>
+  <si>
     <t xml:space="preserve">l.sfgeu rA,rB</t>
   </si>
   <si>
+    <t xml:space="preserve">l.sfleu rB,rA</t>
+  </si>
+  <si>
     <t xml:space="preserve">l.sfgeui rA,I</t>
   </si>
   <si>
+    <t xml:space="preserve">l.ori r0,r0,I
+l.sfgeu rA,r0
+l.xor r0,r0,r0</t>
+  </si>
+  <si>
     <t xml:space="preserve">l.sfgts rA,rB</t>
   </si>
   <si>
+    <t xml:space="preserve">l.sflts rB,rA</t>
+  </si>
+  <si>
     <t xml:space="preserve">l.sfgtsi rA,I</t>
   </si>
   <si>
+    <t xml:space="preserve">l.xori r0,r0,I
+l.sfgts rA,r0
+l.xor r0,r0,r0</t>
+  </si>
+  <si>
     <t xml:space="preserve">l.sfgtu rA,rB</t>
   </si>
   <si>
+    <t xml:space="preserve">l.sfltu rB,rA</t>
+  </si>
+  <si>
     <t xml:space="preserve">l.sfgtui rA,I</t>
   </si>
   <si>
+    <t xml:space="preserve">l.ori r0,r0,I
+l.sfgtu rA,r0
+l.xor r0,r0,r0</t>
+  </si>
+  <si>
     <t xml:space="preserve">l.sfles rA,rB</t>
   </si>
   <si>
+    <t xml:space="preserve">l.sfges rB,rA</t>
+  </si>
+  <si>
     <t xml:space="preserve">l.sflesi rA,I</t>
   </si>
   <si>
+    <t xml:space="preserve">l.xori r0,r0,I
+l.sfles rA,r0
+l.xor r0,r0,r0</t>
+  </si>
+  <si>
     <t xml:space="preserve">l.sfleu rA,rB</t>
   </si>
   <si>
+    <t xml:space="preserve">l.sfgeu rB,rA</t>
+  </si>
+  <si>
     <t xml:space="preserve">l.sfleui rA,I</t>
   </si>
   <si>
+    <t xml:space="preserve">l.ori r0,r0,I
+l.sfleu rA,r0
+l.xor r0,r0,r0</t>
+  </si>
+  <si>
     <t xml:space="preserve">l.sflts rA,rB</t>
   </si>
   <si>
+    <t xml:space="preserve">l.sfgts rB,rA</t>
+  </si>
+  <si>
     <t xml:space="preserve">l.sfltsi rA,I</t>
   </si>
   <si>
+    <t xml:space="preserve">l.xori r0,r0,I
+l.sflts rA,r0
+l.xor r0,r0,r0</t>
+  </si>
+  <si>
     <t xml:space="preserve">l.sfltu rA,rB</t>
   </si>
   <si>
+    <t xml:space="preserve">l.sfgtu rB,rA</t>
+  </si>
+  <si>
     <t xml:space="preserve">l.sfltui rA,I</t>
   </si>
   <si>
+    <t xml:space="preserve">l.ori r0,r0,I
+l.sfltu rA,r0
+l.xor r0,r0,r0</t>
+  </si>
+  <si>
     <t xml:space="preserve">l.sfne rA,rB</t>
   </si>
   <si>
+    <t xml:space="preserve">l.sfne rA,rB
+l.ff1 r0,r0</t>
+  </si>
+  <si>
     <t xml:space="preserve">l.sfnei rA,I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l.xori r0,r0,I
+l.sfne rA,r0
+l.xor r0,r0,r0</t>
   </si>
   <si>
     <t xml:space="preserve">l.sh I(rA),rB</t>
@@ -879,8 +969,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ98"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C95" activeCellId="0" sqref="C95"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A62" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B71" activeCellId="0" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1466,21 +1556,27 @@
       <c r="C55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D56" s="5"/>
+      <c r="B56" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="5"/>
@@ -1488,19 +1584,19 @@
     </row>
     <row r="58" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D58" s="3"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="3"/>
@@ -1508,281 +1604,331 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D60" s="3"/>
     </row>
     <row r="61" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E61" s="3"/>
     </row>
     <row r="62" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D63" s="3"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
+    <row r="65" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65" s="0"/>
       <c r="D65" s="3"/>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
+    <row r="66" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C66" s="0"/>
       <c r="E66" s="3"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B67" s="3"/>
+      <c r="A67" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67" s="0"/>
       <c r="D67" s="3"/>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
+    <row r="68" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" s="0"/>
       <c r="E68" s="3"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
+      <c r="A69" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C69" s="0"/>
       <c r="D69" s="3"/>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
+    <row r="70" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C70" s="0"/>
       <c r="E70" s="3"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="8" t="s">
-        <v>124</v>
-      </c>
+      <c r="A71" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C71" s="0"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
+    <row r="72" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C72" s="0"/>
       <c r="E72" s="3"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="8" t="s">
-        <v>126</v>
-      </c>
+      <c r="A73" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C73" s="0"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
+    <row r="74" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C74" s="0"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C75" s="3"/>
+      <c r="A75" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C75" s="0"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
+    <row r="76" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C76" s="0"/>
       <c r="E76" s="3"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B77" s="3"/>
+      <c r="A77" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C77" s="0"/>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
+    <row r="78" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C78" s="0"/>
       <c r="E78" s="3"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="8" t="s">
-        <v>132</v>
-      </c>
+      <c r="A79" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C79" s="0"/>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
+    <row r="80" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C80" s="0"/>
       <c r="E80" s="3"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B81" s="3"/>
+      <c r="A81" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C81" s="0"/>
       <c r="D81" s="3"/>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
+    <row r="82" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C82" s="0"/>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
+    <row r="83" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="0"/>
       <c r="D83" s="3"/>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
+    <row r="84" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C84" s="0"/>
       <c r="E84" s="3"/>
     </row>
     <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="D86" s="5"/>
     </row>
     <row r="87" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
     </row>
     <row r="88" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="D88" s="5"/>
     </row>
     <row r="89" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
     </row>
     <row r="90" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="D90" s="5"/>
     </row>
     <row r="91" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="5"/>
@@ -1790,31 +1936,31 @@
     </row>
     <row r="92" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="E92" s="3"/>
     </row>
     <row r="93" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="D93" s="3"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="9" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -1822,35 +1968,35 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="8" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="8" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="D97" s="5"/>
     </row>
     <row r="98" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/res/sub_table.xlsx
+++ b/res/sub_table.xlsx
@@ -969,8 +969,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ98"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A62" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B71" activeCellId="0" sqref="B71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C57" activeCellId="0" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/res/sub_table.xlsx
+++ b/res/sub_table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="200">
   <si>
     <t xml:space="preserve">Instruction</t>
   </si>
@@ -697,15 +697,95 @@
 l.xori r0,r0,0</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">l.sb I(rA),rB
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">l.movhi r0,0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">l.sb I(rA),rB
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">l.mulu r0,r0,r0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">l.sh I(rA),rB
+l.movhi r0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l.sh I(rA),rB
+l.mulu r0,r0,r0</t>
+  </si>
+  <si>
     <t xml:space="preserve">l.sw I(rA),rB</t>
   </si>
   <si>
-    <t xml:space="preserve">l.sw I(rA),rB
-l.andi r0,r0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l.sw I(rA),rB
-l.movhi r0,0</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">l.sw I(rA),rB
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">l.movhi r0,0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">l.sw I(rA),rB
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">l.mulu r0,r0,r0</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">l.swa I(rA),rB</t>
@@ -749,7 +829,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="DejaVu Sans"/>
@@ -777,6 +857,11 @@
       <name val="DejaVu Sans"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="DejaVu Sans"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="6">
@@ -967,10 +1052,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ98"/>
+  <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C57" activeCellId="0" sqref="C57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C95" activeCellId="0" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1947,56 +2032,80 @@
       <c r="E92" s="3"/>
     </row>
     <row r="93" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="C93" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B94" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D93" s="3"/>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="9" t="s">
+      <c r="C94" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="8" t="s">
+    <row r="95" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
         <v>188</v>
       </c>
+      <c r="B95" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D95" s="3"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B97" s="6" t="s">
+      <c r="A96" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D97" s="5"/>
-    </row>
-    <row r="98" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="B98" s="5" t="s">
+    </row>
+    <row r="99" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="B99" s="6" t="s">
         <v>195</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D99" s="5"/>
+    </row>
+    <row r="100" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/res/sub_table.xlsx
+++ b/res/sub_table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="200">
   <si>
     <t xml:space="preserve">Instruction</t>
   </si>
@@ -384,7 +384,8 @@
     <t xml:space="preserve">l.nop K</t>
   </si>
   <si>
-    <t xml:space="preserve">l.nop K
+    <t xml:space="preserve">l.movhi r0,0
+l.nop K
 l.andi r0,r0,0</t>
   </si>
   <si>
@@ -458,6 +459,10 @@
     <t xml:space="preserve">l.sb I(rA),rB</t>
   </si>
   <si>
+    <t xml:space="preserve">l.sb I(rA),rB
+l.movhi r0,0</t>
+  </si>
+  <si>
     <t xml:space="preserve">l.sd I(rA),rB</t>
   </si>
   <si>
@@ -697,44 +702,8 @@
 l.xori r0,r0,0</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">l.sb I(rA),rB
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">l.movhi r0,0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">l.sb I(rA),rB
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">l.mulu r0,r0,r0</t>
-    </r>
+    <t xml:space="preserve">l.sb I(rA),rB
+l.mulu r0,r0,r0</t>
   </si>
   <si>
     <t xml:space="preserve">l.sh I(rA),rB
@@ -748,44 +717,12 @@
     <t xml:space="preserve">l.sw I(rA),rB</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">l.sw I(rA),rB
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">l.movhi r0,0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">l.sw I(rA),rB
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">l.mulu r0,r0,r0</t>
-    </r>
+    <t xml:space="preserve">l.sw I(rA),rB
+l.movhi r0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l.sw I(rA),rB
+l.mulu r0,r0,r0</t>
   </si>
   <si>
     <t xml:space="preserve">l.swa I(rA),rB</t>
@@ -829,7 +766,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="DejaVu Sans"/>
@@ -857,11 +794,6 @@
       <name val="DejaVu Sans"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="DejaVu Sans"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1054,8 +986,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C95" activeCellId="0" sqref="C95"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B63" activeCellId="0" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1641,7 +1573,7 @@
       <c r="C55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>101</v>
       </c>
@@ -1716,15 +1648,18 @@
         <v>117</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="B63" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="D63" s="3"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -1732,100 +1667,100 @@
     </row>
     <row r="65" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C65" s="0"/>
       <c r="D65" s="3"/>
     </row>
     <row r="66" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C66" s="0"/>
       <c r="E66" s="3"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C67" s="0"/>
       <c r="D67" s="3"/>
     </row>
     <row r="68" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C68" s="0"/>
       <c r="E68" s="3"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C69" s="0"/>
       <c r="D69" s="3"/>
     </row>
     <row r="70" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C70" s="0"/>
       <c r="E70" s="3"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C71" s="0"/>
       <c r="D71" s="3"/>
     </row>
     <row r="72" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C72" s="0"/>
       <c r="E72" s="3"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C73" s="0"/>
       <c r="D73" s="3"/>
     </row>
     <row r="74" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C74" s="0"/>
       <c r="D74" s="3"/>
@@ -1833,10 +1768,10 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C75" s="0"/>
       <c r="D75" s="3"/>
@@ -1844,176 +1779,176 @@
     </row>
     <row r="76" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C76" s="0"/>
       <c r="E76" s="3"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C77" s="0"/>
       <c r="D77" s="3"/>
     </row>
     <row r="78" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C78" s="0"/>
       <c r="E78" s="3"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C79" s="0"/>
       <c r="D79" s="3"/>
     </row>
     <row r="80" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C80" s="0"/>
       <c r="E80" s="3"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C81" s="0"/>
       <c r="D81" s="3"/>
     </row>
     <row r="82" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C82" s="0"/>
       <c r="E82" s="3"/>
     </row>
     <row r="83" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C83" s="0"/>
       <c r="D83" s="3"/>
     </row>
     <row r="84" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C84" s="0"/>
       <c r="E84" s="3"/>
     </row>
     <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D86" s="5"/>
     </row>
     <row r="87" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
     </row>
     <row r="88" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D88" s="5"/>
     </row>
     <row r="89" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
     </row>
     <row r="90" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D90" s="5"/>
     </row>
     <row r="91" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="5"/>
@@ -2021,13 +1956,13 @@
     </row>
     <row r="92" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E92" s="3"/>
     </row>
@@ -2036,7 +1971,7 @@
         <v>118</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>185</v>
@@ -2045,7 +1980,7 @@
     </row>
     <row r="94" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>186</v>
